--- a/constraints.xlsx
+++ b/constraints.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8042A9-A109-4AA3-95D9-6A2BFC0F0C42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65247F5-78DD-4693-AC33-AF3482B2C9BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>H_i</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>pi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.44+pi*t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,39 +86,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t*pi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 0</t>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -510,10 +510,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -524,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -575,7 +575,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -592,25 +592,82 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
         <v>21</v>
       </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
